--- a/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 97,68%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,17%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>42,15%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>43,74%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>32,8%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>33,84%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>37,49%</t>
+          <t>24,49%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>28,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>32,71%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>33,89%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>37,91%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>41,7%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>35,89%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,59; 38,78</t>
+          <t>22,96; 38,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,24; 46,68</t>
+          <t>28,65; 46,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,13; 51,78</t>
+          <t>31,72; 50,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,97; 54,32</t>
+          <t>33,55; 53,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,24; 34,8</t>
+          <t>39,14; 60,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,8; 35,41</t>
+          <t>37,04; 57,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,53; 33,02</t>
+          <t>18,45; 32,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,08; 39,96</t>
+          <t>21,6; 35,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,77; 33,31</t>
+          <t>19,52; 33,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>26,96; 38,58</t>
+          <t>22,9; 40,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,92; 40,38</t>
+          <t>25,24; 41,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,26; 45,26</t>
+          <t>17,37; 33,84</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>22,42; 33,86</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>27,14; 38,53</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>28,1; 40,8</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>30,62; 44,48</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>35,36; 49,12</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>29,29; 42,72</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>54,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>44,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,24%</t>
+          <t>44,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,06%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48,48%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>37,11%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>46,59%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>48,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>45,28%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>39,5%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>44,25%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,41; 64,4</t>
+          <t>43,41; 63,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,62; 63,95</t>
+          <t>46,29; 62,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,21; 59,35</t>
+          <t>41,45; 60,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,83; 53,24</t>
+          <t>34,26; 54,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,11; 46,1</t>
+          <t>34,43; 53,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,67; 47,9</t>
+          <t>38,04; 64,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,34; 46,2</t>
+          <t>30,38; 45,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,98; 42,34</t>
+          <t>33,69; 47,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,59; 53,68</t>
+          <t>32,43; 45,0</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>43,13; 53,96</t>
+          <t>26,81; 42,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,92; 51,2</t>
+          <t>37,09; 52,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,24; 46,31</t>
+          <t>29,18; 45,31</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40,86; 53,95</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>43,03; 54,0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>39,53; 50,93</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>32,87; 45,48</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>37,72; 50,59</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>38,12; 52,8</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>63,7%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>62,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65,31%</t>
+          <t>65,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>59,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>65,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>58,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>48,3%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>52,08%</t>
+          <t>43,18%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>49,05%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
+          <t>49,76%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>36,53%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>52,64%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>50,52%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>54,18%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>54,04%</t>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>54,38%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>57,99%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>47,08%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,57; 68,41</t>
+          <t>56,79; 70,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,55; 67,48</t>
+          <t>55,38; 68,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,15; 71,65</t>
+          <t>58,73; 71,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,45; 65,93</t>
+          <t>52,38; 66,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,99; 49,37</t>
+          <t>57,75; 71,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,21; 44,29</t>
+          <t>49,39; 65,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,55; 48,73</t>
+          <t>34,69; 47,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,23; 55,02</t>
+          <t>33,64; 44,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,15; 57,41</t>
+          <t>38,14; 48,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,92; 54,6</t>
+          <t>42,84; 54,95</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,46; 59,0</t>
+          <t>42,32; 56,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,84; 58,58</t>
+          <t>31,39; 42,74</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>47,73; 57,34</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>46,36; 54,46</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>49,87; 58,32</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>49,18; 59,07</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>53,0; 63,18</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>42,18; 52,08</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1305,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>66,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,19%</t>
+          <t>70,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>67,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,42 +1325,72 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>60,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>48,83%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>60,63%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>53,71%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>55,03%</t>
+          <t>51,89%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>57,59%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>60,73%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>58,95%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>55,65%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>62,52%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>56,19%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,22; 71,77</t>
+          <t>60,51; 72,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,93; 75,37</t>
+          <t>64,43; 75,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,29; 72,98</t>
+          <t>60,94; 73,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>52,52; 67,62</t>
+          <t>52,39; 67,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>42,12; 53,75</t>
+          <t>63,6; 76,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,27; 57,14</t>
+          <t>53,03; 67,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,23; 55,98</t>
+          <t>42,86; 54,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,42; 55,31</t>
+          <t>46,28; 56,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,31; 61,18</t>
+          <t>45,62; 55,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,84; 64,58</t>
+          <t>43,63; 57,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,59; 62,52</t>
+          <t>47,83; 60,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,82; 60,01</t>
+          <t>46,35; 58,25</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>53,43; 61,79</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>56,92; 64,92</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>55,12; 63,02</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>50,36; 61,12</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>58,06; 67,25</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>51,83; 60,62</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>68,16%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>69,02%</t>
+          <t>68,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>72,04%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>75,34%</t>
+          <t>75,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>56,69%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>59,12%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>56,81%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>59,4%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>55,7%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>63,97%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>62,98%</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>65,53%</t>
+          <t>61,14%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>57,83%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>63,63%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>62,8%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>65,5%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>65,22%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>66,7%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>65,41%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,25; 74,68</t>
+          <t>59,8; 74,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,95; 74,45</t>
+          <t>61,78; 74,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,85; 77,71</t>
+          <t>65,22; 77,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,89; 81,92</t>
+          <t>68,62; 81,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>51,93; 66,37</t>
+          <t>65,65; 78,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,12; 62,62</t>
+          <t>66,26; 79,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>52,81; 65,34</t>
+          <t>51,53; 65,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,81; 62,1</t>
+          <t>50,58; 62,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>58,94; 68,6</t>
+          <t>53,38; 65,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>58,04; 67,16</t>
+          <t>48,73; 62,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,78; 70,1</t>
+          <t>53,98; 68,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>60,28; 70,03</t>
+          <t>50,3; 64,58</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>58,28; 68,14</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>58,36; 67,38</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>61,18; 69,77</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>60,39; 69,85</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>61,71; 71,29</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>60,64; 70,82</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1705,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>73,64%</t>
+          <t>75,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>69,83%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>79,26%</t>
+          <t>79,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1376,42 +1725,72 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>72,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>69,67%</t>
+          <t>72,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>72,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>70,26%</t>
+          <t>69,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>73,13%</t>
+          <t>64,36%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>68,9%</t>
+          <t>70,77%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>70,06%</t>
+          <t>70,68%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>72,7%</t>
+          <t>61,9%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>73,76%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>69,38%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>71,22%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>72,99%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>71,74%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>66,99%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,48; 81,6</t>
+          <t>64,28; 82,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>57,15; 76,2</t>
+          <t>59,67; 77,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72,41; 84,68</t>
+          <t>74,09; 85,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>68,46; 83,8</t>
+          <t>66,87; 82,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>64,65; 79,78</t>
+          <t>65,3; 80,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>63,28; 75,71</t>
+          <t>64,02; 79,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>48,75; 70,02</t>
+          <t>64,73; 79,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,41; 79,16</t>
+          <t>61,96; 75,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65,36; 78,44</t>
+          <t>54,72; 71,45</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63,11; 73,75</t>
+          <t>59,6; 78,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>60,48; 74,98</t>
+          <t>60,66; 78,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>66,42; 78,56</t>
+          <t>52,49; 69,61</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>66,75; 78,77</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>63,53; 74,27</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>65,51; 75,73</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>66,3; 79,29</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>65,98; 77,16</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>60,74; 72,89</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1905,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>60,42%</t>
+          <t>60,83%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>62,78%</t>
+          <t>62,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1516,42 +1925,72 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>62,95%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,88%</t>
+          <t>61,1%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>47,7%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>47,55%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>54,14%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>54,93%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>54,69%</t>
+          <t>45,43%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>54,13%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>54,24%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>55,07%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>54,97%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>58,01%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>53,2%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>55,71; 62,53</t>
+          <t>57,11; 63,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>57,26; 63,23</t>
+          <t>57,76; 63,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,49; 65,56</t>
+          <t>59,55; 65,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>56,05; 63,41</t>
+          <t>56,54; 63,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,57; 51,44</t>
+          <t>58,97; 66,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,68; 50,69</t>
+          <t>56,93; 64,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,45; 49,78</t>
+          <t>44,98; 50,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>46,48; 52,92</t>
+          <t>45,25; 50,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,51; 56,14</t>
+          <t>44,87; 50,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>52,2; 56,21</t>
+          <t>46,87; 53,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>52,76; 56,89</t>
+          <t>49,69; 56,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,05; 57,07</t>
+          <t>42,51; 48,49</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>51,81; 56,21</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>52,45; 56,3</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>52,8; 57,01</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>52,45; 57,28</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>55,51; 60,6</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>50,74; 55,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sobrepeso u obesidad (tasa de respuesta: 97,68%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>148011</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>187201</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>202114</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17231</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19472</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>207260</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>114191</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>138529</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>132346</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11534</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>12454</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>112429</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>262203</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>325730</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>334460</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>28765</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>31926</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>319690</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>110878; 188254</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>144605; 234022</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>154210; 246342</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13221; 21276</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15389; 23857</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>159923; 248738</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>83718; 149453</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>106097; 176464</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>97793; 167824</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8352; 14832</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9399; 15598</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>79732; 155358</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>209943; 317100</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>270301; 383708</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>277345; 402665</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>23235; 33755</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>27075; 37612</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>260905; 380583</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>301184</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>309722</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>295892</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21634</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19545</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>307835</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>184379</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>199225</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>193772</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15245</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19499</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>183032</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>485563</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>508946</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>489663</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>36880</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>39044</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>490867</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>240225; 353521</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>259239; 352745</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>241234; 350362</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16816; 26826</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15232; 23869</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>216474; 365359</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>148471; 224450</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>165223; 232696</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>161932; 224724</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11874; 18647</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16317; 22923</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>143904; 223485</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>425830; 562239</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>452018; 567229</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>427459; 550752</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>30692; 42461</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>33280; 44637</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>404929; 560861</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>429682</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>418620</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>440680</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>35152</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>37883</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>390160</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>277291</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>265958</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>299291</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26223</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>24880</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>257744</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>706973</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>684579</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>739971</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>61374</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>62763</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>647905</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>383102; 473789</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>372152; 462043</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>395066; 479792</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31110; 39516</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33632; 41901</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>331146; 435874</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>231919; 315592</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>229770; 301944</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>264362; 335150</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22901; 29380</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21160; 28236</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>221507; 301533</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>641104; 770100</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>628183; 737901</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>681078; 796489</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>55501; 66663</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>57366; 68386</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>580483; 716669</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>412933</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>438053</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>423790</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>34721</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>38265</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>388420</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>313680</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>335525</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>320368</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>25270</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>26378</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>332621</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>726613</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>773578</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>744158</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>59991</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>64643</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>721040</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>374812; 449135</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>401145; 471215</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>382416; 459681</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>30050; 38950</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>34530; 41466</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>340570; 431445</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>275296; 351507</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>301343; 370167</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>289670; 352175</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>22016; 28915</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23491; 29811</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>297142; 373375</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>674100; 779640</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>725016; 826852</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>695872; 795552</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>54298; 65893</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>60041; 69534</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>665143; 777968</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>331080</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>338585</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>347659</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>32424</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30759</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>353915</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>271895</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>269131</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>293895</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25466</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25714</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>284733</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>602975</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>607717</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>641553</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>57890</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>56472</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>638648</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>290474; 363792</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>305194; 367479</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>316124; 376071</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>29535; 35056</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27971; 33531</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>320658; 384108</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>238004; 301245</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>239602; 297071</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>264139; 325569</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>22281; 28623</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22704; 28724</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>247683; 318012</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>552267; 645699</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>564807; 652051</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>599249; 683389</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>53601; 61999</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>52248; 60354</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>592080; 691457</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>383713</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>338529</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>383620</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>34096</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>31770</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>388119</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>403787</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>395905</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>392666</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>39799</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>34241</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>366237</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>787501</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>734434</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>776286</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>73896</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>66011</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>754356</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>327922; 421444</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>289288; 375807</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>355578; 412061</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>30094; 37108</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>28450; 35031</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>342138; 425593</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>360832; 445459</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>355450; 431917</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>333860; 435922</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>33514; 44366</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29387; 37787</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>310577; 411841</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>712711; 841005</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>672471; 786191</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>714043; 825462</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>67119; 80275</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>60718; 71004</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>683951; 820839</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>693.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>831.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>844.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>556.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>589.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>736.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>762.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>514.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>533.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1282.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1567.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1606.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1070.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1103.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1178.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2006604</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2030711</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2093754</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>175258</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>177695</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2035709</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1565223</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1604273</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1632337</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>143538</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>143165</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1536796</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>3571827</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>3634983</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>3726092</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>318795</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>320860</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>3572506</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1899788; 2115546</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1928118; 2127569</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1984676; 2195881</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>165831; 186181</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>166461; 187182</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1896910; 2157120</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1471982; 1655265</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1521915; 1696305</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1540497; 1727025</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>134357; 152937</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>134578; 151770</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1438086; 1640317</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3418759; 3708991</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3514972; 3772566</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3572462; 3857679</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>304148; 332151</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>307048; 335190</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>3407174; 3730459</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
